--- a/downloads/parsed_data2.xlsx
+++ b/downloads/parsed_data2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E518"/>
+  <dimension ref="A1:E870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14419,6 +14419,9510 @@
         </is>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:18</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>БЛОК-ФАРА ГАЗ-31105  ALRU 059 лев.</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>2 877 ₽</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/blok-fara-gaz-31105-alru-059-lev/</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:18</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>БОЛТ ПОВОРОТНОГО УГОЛЬНИКА Д 18-051   ОАО "САЗ" СМ 8462543</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Д 18-051</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>140 ₽</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/bolt-povorotnogo-ugolnika-d-18-051-oao-saz-sm-8462543/</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:18</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Панель боковины левая УАЗ-469 под тент 0469-5401059</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>4 975 ₽</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/panel-bokoviny-levaya-uaz-469-pod-tent-0469-5401059/</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:18</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Рычаг верхний передней подвески в сборе левый ГАЗ-3110 31105 (ГАЗ) 3110-2904101</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>3110-2904101</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>6 420 ₽</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/rychag-verkhniy-peredney-podveski-v-sbore-levyy-gaz-3110-31105-gaz-3110-2904101/</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:18</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>МИКАС 11 581.3763-01 E3 Крайслер Газель, Соболь</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>11 581.3763-01 E3</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>8 967 ₽</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/mikas-11-581-3763-01-e3-kraysler-gazel-sobol/</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:18</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Подфарник ВАЗ-2106 правый белый (ТН125 П-01) (Освар) 21060-3712010-03</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>ТН125 П-01</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>304 ₽</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/podfarnik-vaz-2106-pravyy-belyy-tn125-p-01-osvar-21060-3712010-03/</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:18</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>МИКАС 11 581.3763-05 E3 Крайслер Волга</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>11 581.3763-05 E3</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>8 218 ₽</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/mikas-11-581-3763-05-e3-kraysler-volga/</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:18</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>ЦИЛИНДР СЦЕПЛЕНИЯ ГЛАВНЫЙ С2602   574177 (FENOX) (3 отв 1-боковое)</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>С2602</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>6 150 ₽</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/tsilindr-stsepleniya-glavnyy-s2602-574177-fenox-3-otv-1-bokovoe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:18</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Накладка тормозная задняя  ГАЗ-3302-2217 (Фритекс) 3302  3502105</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>3502105</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>22 ₽</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/nakladka-tormoznaya-zadnyaya-gaz-3302-2217-friteks-3302-3502105/</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:18</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>БЛОК-ФАРА  ALRU 676512.122 прав. УАЗ Патриот</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>ALRU 676512.122</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>4 941 ₽</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/blok-fara-alru-676512-122-prav-uaz-patriot/</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:18</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>КНОПКА АВАРИЙНОЙ ОСТ.379.3710-01 Калина</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>379.3710-01</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>82 ₽</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/knopka-avariynoy-ost-379-3710-01-kalina/</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:18</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Блок управления подушками безопастности ВАЗ-2170 21700-3824010-01</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>21700-3824010-01</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>2 794 ₽</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-upravleniya-podushkami-bezopastnosti-vaz-2170-21700-3824010-01/</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:54</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>ЖГУТ на форсунки 2111-3724 036</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>2111-3724 036</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>249 ₽</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/zhgut-na-forsunki-2111-3724-036/</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:54</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Вал помпы УАЗ 13-1307023-21</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>13-1307023-21</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>41 ₽</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/val-pompy-uaz-13-1307023-21/</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:54</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>ЖГУТ на "микас" 3110-3761 581-02</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>3110-3761 581-02</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>2 319 ₽</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/zhgut-na-mikas-3110-3761-581-02/</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:54</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>ЖГУТ задний 2111-3724 210-03</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>2111-3724 210-03</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>1 489 ₽</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/zhgut-zadniy-2111-3724-210-03/</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:54</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Патрубки отопителя ВАЗ-2110-12 с хомутами кт. (БРТ) 89РШХ</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>89РШХ</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>388 ₽</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/patrubki-otopitelya-vaz-2110-12-s-khomutami-kt-brt-89rshkh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:54</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>НАКЛАДКА Зил-130 (шир.70) сверленые по центру (6 отв.)</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>105 ₽</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/nakladka-zil-130-shir-70-sverlenye-po-tsentru-6-otv-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:54</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Датчик уровня охл. жидкости ВАЗ-2110 2110-3839310-13</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>2110-3839310-13</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>67 ₽</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-urovnya-okhl-zhidkosti-vaz-2110-2110-3839310-13/</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:54</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Комплект монтажный Северс-М1" №16 (ГАЗ-31105-501 с двиг DOHC 2.4 L )</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>31105-501</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>264 ₽</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/komplekt-montazhnyy-severs-m1-16-gaz-31105-501-s-dvig-dohc-2-4-l-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:54</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Блок предохранителей с крышкой  ВАЗ-2170 2170  3722012 01</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>3722012 01</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>336 ₽</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-predokhraniteley-s-kryshkoy-vaz-2170-2170-3722012-01/</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:54</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Блок управления подушками безопастности ВАЗ-2190 2190-3824010</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>2190-3824010</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>1 564 ₽</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-upravleniya-podushkami-bezopastnosti-vaz-2190-2190-3824010/</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:54</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>МОДУЛЬ ЭБН 2112-1139009 Р ВАЗ 2110 сливная топливная магистраль</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>2112-1139009</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>1 019 ₽</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/modul-ebn-2112-1139009-r-vaz-2110-slivnaya-toplivnaya-magistral/</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00:54</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>ВЫКЛЮЧАТЕЛЬ 93.3710-03.12 контроль нити накала Газель, Соболь /европанель/</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>93.3710-03.12</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>85 ₽</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/vyklyuchatel-93-3710-03-12-kontrol-niti-nakala-gazel-sobol-evropanel/</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:01:29</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 83.3710-05.03 аварийной сигнализации ВАЗ 21093</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>83.3710-05.03</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>84 ₽</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-83-3710-05-03-avariynoy-signalizatsii-vaz-21093/</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:01:29</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>КНОПКА АВАРИЙНОЙ ОСТ.379.3710-02 ВАЗ-2112</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>379.3710-02</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>100 ₽</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/knopka-avariynoy-ost-379-3710-02-vaz-2112/</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:01:29</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 84.3709 Клавиш. главный свет ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>84.3709</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>153 ₽</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-84-3709-klavish-glavnyy-svet-vaz-2110/</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:01:29</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 83.3710-04.01 передние противотум фары ВАЗ 21093</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>83.3710-04.01</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>68 ₽</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-83-3710-04-01-perednie-protivotum-fary-vaz-21093/</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:01:29</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>ВЫКЛЮЧАТЕЛЬ ВК 62.3710 освещ.приборов (ВАЗ-2108,09,УАЗ) ЛЭТЗ</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>62.3710</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>76 ₽</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/vyklyuchatel-vk-62-3710-osveshch-priborov-vaz-2108-09-uaz-letz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:01:29</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Комплект монтажный Северс-М1" №35 (Ларгус 1,6 л 16 кл МКПП)</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>264 ₽</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/komplekt-montazhnyy-severs-m1-35-largus-1-6-l-16-kl-mkpp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:01:29</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Генератор 24V 140A ISF 3.8 ПАЗ (5263830) AVE2119-E</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>5263830</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>20 680 ₽</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/generator-24v-140a-isf-3-8-paz-5263830-ave2119-e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:01:29</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 831.3710-04.01 передние противотум фары ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>831.3710-04.01</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>75 ₽</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-831-3710-04-01-perednie-protivotum-fary-vaz-2110/</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:01:29</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>БАЛКА ПЕРЕДНЕЙ ОСИ ЗИЛ-(4331-3001010-001)"РЗАА"</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>4331-3001010-001</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>15 995 ₽</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/balka-peredney-osi-zil-4331-3001010-001-rzaa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:01:29</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>ПОДОГРЕВАТЕЛЬ МАСЛА (ПРОБКА)   (ГАЗ,УАЗ)</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>132 ₽</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/podogrevatel-masla-probka-gaz-uaz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:01:29</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Патрубки радиатора Г-ль 2752 ДВС 405 4 шт.</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>268 ₽</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/patrubki-radiatora-g-l-2752-dvs-405-4-sht/</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:01:29</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Патрубки радиатора ВАЗ-2110-12 с хомутами кт. (БРТ) 88РШХ</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>88РШХ</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>527 ₽</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/patrubki-radiatora-vaz-2110-12-s-khomutami-kt-brt-88rshkh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:04</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>ПЛАСТИНА ПРЕРЫВАТЕЛЯ Р119-3706300  ГАЗ,УАЗ</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Р119-3706300</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>172 ₽</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/plastina-preryvatelya-r119-3706300-gaz-uaz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:04</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Блок управления подушками безопастности ВАЗ-1118 11180-3824010-00</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>11180-3824010-00</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>3 161 ₽</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-upravleniya-podushkami-bezopastnosti-vaz-1118-11180-3824010-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:04</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>ПЕРЕЛЮЧАТЕЛЬ 72.3709-01 обогрев зад. стекла ВАЗ 21213</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>72.3709-01</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>70 ₽</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/perelyuchatel-72-3709-01-obogrev-zad-stekla-vaz-21213/</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:04</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>НАКОНЕЧНИК СВЕЧНОЙ 48.3707200-01 (4шт кмп)угловой</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>48.3707200-01</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>167 ₽</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/nakonechnik-svechnoy-48-3707200-01-4sht-kmp-uglovoy/</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:04</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>МИКАС 824.3763 001-05 двигатель 3163-3763011-08 ЗМЗ 4091</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>824.3763 001-05</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>4 896 ₽</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/mikas-824-3763-001-05-dvigatel-3163-3763011-08-zmz-4091/</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:04</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>ПОРШЕНЬ ДВИГАТЕЛЯ ЗИЛ-130 Ф 100</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>185 ₽</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/porshen-dvigatelya-zil-130-f-100/</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:04</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Блок предохранителей ПР 121 ГАЗ-3110 (ЛЭТЗ) 121-3722000</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>121-3722000</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>426 ₽</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/blok-predokhraniteley-pr-121-gaz-3110-letz-121-3722000/</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:04</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Подкрылок 3163 задн. прав.</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>225 ₽</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/podkrylok-3163-zadn-prav/</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:04</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>ВЫКЛЮЧАТЕЛЬ 93.3710-01.05 подогрева сидений ВАЗ, ГАЗ-3310 /европанель/</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>93.3710-01.05</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>74 ₽</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/vyklyuchatel-93-3710-01-05-podogreva-sideniy-vaz-gaz-3310-evropanel/</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:04</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Вакуум бесконтактного трамблера ВАЗ-2108-10 Ст. Оскол 040-3706600</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>040-3706600</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>119 ₽</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/vakuum-beskontaktnogo-tramblera-vaz-2108-10-st-oskol-040-3706600/</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:04</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>МОТОРЕДУКТОР СТЕКЛОПОД. ПРАВ 20.3780-01 ВАЗ,ГАЗ Калуга</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>20.3780-01</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>603 ₽</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/motoreduktor-steklopod-prav-20-3780-01-vaz-gaz-kaluga/</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:04</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>МОДУЛЬ ЭБН 21083.1139009 Р ВАЗ 2108-21099 Самара</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>1139009</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>967 ₽</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/modul-ebn-21083-1139009-r-vaz-2108-21099-samara/</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:39</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Датчик АБС ВАЗ-1118 задний(ОАО АВТОВАЗ) 11180  3538370 00</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>3538370 00</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>447 ₽</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-abs-vaz-1118-zadniy-oao-avtovaz-11180-3538370-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:39</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 832.3710-04.01кондиционер ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>832.3710-04.01</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>75 ₽</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-832-3710-04-01konditsioner-vaz-2110/</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:39</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Подфарник ВАЗ-2106 правый желтый (ТН125 П) (Освар) 21060-3712010</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>21060-3712010</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>302 ₽</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/podfarnik-vaz-2106-pravyy-zheltyy-tn125-p-osvar-21060-3712010/</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:39</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>КНОПКА АВАРИЙНОЙ ОСТ.379.3710 ВАЗ-2123</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>379.3710</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>125 ₽</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/knopka-avariynoy-ost-379-3710-vaz-2123/</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:39</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>АВТОЛАМПА  КЛУ 12*9W Газель плафон</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>38 ₽</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/avtolampa-klu-12-9w-gazel-plafon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:39</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Облицовка бампера левая LADA 8450100967</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>8450100967</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>132 ₽</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/oblitsovka-bampera-levaya-lada-8450100967/</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:39</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Датчик аварийный  тормозной жидкости ВАЗ-2108 (10.3839) 2108  221001</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>10.3839</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>103 ₽</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-avariynyy-tormoznoy-zhidkosti-vaz-2108-10-3839-2108-221001/</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:39</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Блок управления стеклоподъемниками ВАЗ-1118 Калина</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>601 ₽</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-upravleniya-steklopodemnikami-vaz-1118-kalina/</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:39</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Моторедуктор заслонки отопителя ГАЗель, Волга Детали Машин ГАЗ .90.3780</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>90.3780</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>525 ₽</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/motoreduktor-zaslonki-otopitelya-gazel-volga-detali-mashin-gaz-90-3780/</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:39</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>КНОПКА АВАРИЙНОЙ ОСТ.378.3710-05.03 ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>378.3710-05.03</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>95 ₽</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/knopka-avariynoy-ost-378-3710-05-03-vaz-2110/</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:39</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>КОНТАКТОР КТ-128  ГАЗ-3302</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>КТ-128</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>1 511 ₽</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/kontaktor-kt-128-gaz-3302/</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:02:39</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>ВЫКЛЮЧАТЕЛЬ 13.3720</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>13.3720</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>33 ₽</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/vyklyuchatel-13-3720/</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:15</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Амортизатор ВАЗ-2121 передний 2121-2905402-03 (фирм. упак. LADA)</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>2121-2905402-03</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>790 ₽</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/amortizator-vaz-2121-peredniy-2121-2905402-03-firm-upak-lada/</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:15</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>ЩИТ ТОРМОЗНОЙ ПРАВЫЙ УАЗ</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>10 ₽</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/shchit-tormoznoy-pravyy-uaz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:15</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>ГЕНЕРАТОР 6631.3771-01 ЗиТ Уаз-31512, 3741  55А</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>6631.3771-01</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>2 411 ₽</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/generator-6631-3771-01-zit-uaz-31512-3741-55a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:15</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>СТУПИЦА ЗАДНЕГО КОЛЕСА ЗИЛ-432930,ПАЗ(4331-3104015) ГОЛАЯ</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>4331-3104015</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>4 970 ₽</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/stupitsa-zadnego-kolesa-zil-432930-paz-4331-3104015-golaya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:15</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Датчик уровня торм. жидкости ВАЗ-2108-12,2121-2123 21100  3505110 00</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>3505110 00</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>117 ₽</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-urovnya-torm-zhidkosti-vaz-2108-12-2121-2123-21100-3505110-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:15</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Повторитель поворота ВАЗ-2106, 2121 белый (13.3726-02) (Освар)</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>13.3726-02</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>75 ₽</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/povtoritel-povorota-vaz-2106-2121-belyy-13-3726-02-osvar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:15</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Шланг омывателя УАЗ-452 кмп. 452Д-5208095/6/7</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>452Д-5208095/6/7</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>19 ₽</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/shlang-omyvatelya-uaz-452-kmp-452d-5208095-6-7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:15</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Патрубки радиатора ВАЗ-2121 (кт.4 шт.) Riginal RG2121-0-1303000-0</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>2121-0-1303000-0</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>322 ₽</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/patrubki-radiatora-vaz-2121-kt-4-sht-riginal-rg2121-0-1303000-0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:15</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 83.3710-04.02 задние противотум фары ВАЗ 21093</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>83.3710-04.02</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>68 ₽</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-83-3710-04-02-zadnie-protivotum-fary-vaz-21093/</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:15</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>КОНТАКТЫ  ТРАМБЛЕРА 030,37061 ВАЗ-2101-07</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>030,37061</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>88 ₽</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/kontakty-tramblera-030-37061-vaz-2101-07/</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:15</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>ЖГУТ пров.передний 21723-3724 010-26/24</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>21723-3724 010-26/24</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>4 037 ₽</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/zhgut-prov-peredniy-21723-3724-010-26-24/</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:15</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>РЕГУЛЯТОР ДАВЛЕНИЯ ГИДРОТОРМОЗОВ ЗИЛ-(5301-3535005)</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>5301-3535005</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>740 ₽</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/regulyator-davleniya-gidrotormozov-zil-5301-3535005/</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:50</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>КОММУТАТОР 76.3734 ВАЗ-2108</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>76.3734</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>199 ₽</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/kommutator-76-3734-vaz-2108/</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:50</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Блок управления стеклоочистителем ВАЗ-2170 21700-3825010-00 ИТЭЛМА</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>21700-3825010-00</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>1 565 ₽</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-upravleniya-stekloochistitelem-vaz-2170-21700-3825010-00-itelma/</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:50</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 831.3710-04.03 обогрева зад. стекла ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>831.3710-04.03</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>70 ₽</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-831-3710-04-03-obogreva-zad-stekla-vaz-2110/</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:50</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>ПЛАСТИНА ПРЕРЫВАТЕЛЯ Р4-3706300  ГАЗ-53,ЗИЛ</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Р4-3706300</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>118 ₽</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/plastina-preryvatelya-r4-3706300-gaz-53-zil/</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:50</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>ЩИТОК НЕЙТРАЛИЗАТОРА УАЗ-3163 3163-20-1304030</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>3163-20-1304030</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>285 ₽</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/shchitok-neytralizatora-uaz-3163-3163-20-1304030/</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:50</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Спойлера и пороги УАЗ-469 "Ирбис"</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>4 005 ₽</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/spoylera-i-porogi-uaz-469-irbis/</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:50</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>ЖГУТ пров.сист. зажиг. 21102-3724 026-70 (8клап, 1.6 Е4)</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>21102-3724 026-70</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>2 679 ₽</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/zhgut-prov-sist-zazhig-21102-3724-026-70-8klap-1-6-e4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:50</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>БЛОК ТВБ 1212,3759010  12/24В  ЗИЛ-5301,ТРАКТОРЫ</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>1 909 ₽</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/blok-tvb-1212-3759010-12-24v-zil-5301-traktory/</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:50</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>АВТОЛАМПА H1 12-55 P14,5s+50% OSRAM</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>216 ₽</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/avtolampa-h1-12-55-p14-5s-50-osram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:50</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Накладки тормозные 65205210A8RV 1 Ремонт FOMAR</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>65205210A8RV</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>1 691 ₽</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/nakladki-tormoznye-65205210a8rv-1-remont-fomar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:50</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Комплект монтажный Северс-М2" №51 (Газ-3310 Валдай с дв ММЗ-245.7Е2 )</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>308 ₽</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/komplekt-montazhnyy-severs-m2-51-gaz-3310-valday-s-dv-mmz-245-7e2-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:03:50</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Комплект монтажный Северс-М2" №50 (Газ-3309 с дв ММЗ-245.7Е2 )</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>308 ₽</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/komplekt-montazhnyy-severs-m2-50-gaz-3309-s-dv-mmz-245-7e2-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:04:25</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>ВЫКЛЮЧАТЕЛЬ ВК 48.3710 лампы подкапотной ВАЗ, УАЗ ЛЭТЗ</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>48.3710</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>46 ₽</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/vyklyuchatel-vk-48-3710-lampy-podkapotnoy-vaz-uaz-letz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:04:25</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>БЛОК УПРАВЛЕНИЯ ЭПХХ УАЗ 452,469,HUNTER (4-КОНТ.) (25.3761-02)</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>25.3761-02</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>111 ₽</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/blok-upravleniya-epkhkh-uaz-452-469-hunter-4-kont-25-3761-02/</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:04:25</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>НАКЛАДКА 20-3501105 УАЗ</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>20-3501105</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>30 ₽</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/nakladka-20-3501105-uaz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:04:25</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>ПЛАФОН 12.3714010 ГАЗ-31029</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>12.3714010</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>104 ₽</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/plafon-12-3714010-gaz-31029/</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:04:25</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>БЛОК-ФАРА  ALRU 676512.121  лев. УАЗ Патриот</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>676512.121</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>4 941 ₽</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/blok-fara-alru-676512-121-lev-uaz-patriot/</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:04:25</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Блок предохранит. монтажный в сборе (реле и предохранителей) ВАЗ-2110-12 (АВАР) 391  3722 М</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>391  3722 М</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>1 998 ₽</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-predokhranit-montazhnyy-v-sbore-rele-i-predokhraniteley-vaz-2110-12-avar-391-3722-m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:04:25</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 832.3710-04.02 рециркулятора ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>832.3710-04.02</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>75 ₽</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-832-3710-04-02-retsirkulyatora-vaz-2110/</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:04:25</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>НАСОС ОМЫВАТЕЛЯ МЭ-268 ВАЗ 2101-07 КЭМЗ</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>МЭ-268</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>73 ₽</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/nasos-omyvatelya-me-268-vaz-2101-07-kemz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:04:25</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>МОТОРЕДУКТОР УПРАВЛЕНИЯ ЗАСЛОНКОЙ ОТОПИТЕЛЯ ВАЗ-2110</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>432 ₽</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/motoreduktor-upravleniya-zaslonkoy-otopitelya-vaz-2110/</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:04:25</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Накладки тормозные на 1 мост BPW, SAF, CARDI 200x420 (19094) R0</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>19094</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>2 145 ₽</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/nakladki-tormoznye-na-1-most-bpw-saf-cardi-200x420-19094-r0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:04:25</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Модуль зажигания ВАЗ 2108-2115 Фенокс 2112-3705010-07</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>2112-3705010-07</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>1 724 ₽</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/modul-zazhiganiya-vaz-2108-2115-fenoks-2112-3705010-07/</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:04:25</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Датчик температуры салона ВАЗ-1118, 2170 2603-3855000Калуга</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>2603-3855000</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>342 ₽</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-temperatury-salona-vaz-1118-2170-2603-3855000kaluga/</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Датчик температуры испарителя кондиционера ВАЗ-1118 11186-8121030-00 ЗАО АвтоКомплект</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>11186-8121030-00</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>366 ₽</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-temperatury-isparitelya-konditsionera-vaz-1118-11186-8121030-00-zao-avtokomplekt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Бендикс ВАЗ-2108-09 с/о 264.600 (стартер 264.3708) Херсон</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>264.3708</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>235 ₽</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/bendiks-vaz-2108-09-s-o-264-600-starter-264-3708-kherson/</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>БЛОК УПРАВЛЕНИЯ ЭПХХ ВАЗ-2108,10 (31.3763)</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>31.3763</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>96 ₽</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-upravleniya-epkhkh-vaz-2108-10-31-3763/</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:00</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Панель приборов УАЗ-469 "Триумф"</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>2 435 ₽</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/panel-priborov-uaz-469-triumf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:00</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Панель боковины правая УАЗ-469 под крышу 3151-40-5401058</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>3151-40-5401058</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>4 090 ₽</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/panel-bokoviny-pravaya-uaz-469-pod-kryshu-3151-40-5401058/</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:00</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>КЕНГУРИН УАЗ HUNTER</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>6 660 ₽</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kengurin-uaz-hunter/</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:00</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Стойка задняя УАЗ-469 левая 469-5401121-00</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>469-5401121-00</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>1 125 ₽</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/stoyka-zadnyaya-uaz-469-levaya-469-5401121-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:00</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>МЕХАНИЗМ ПЕРЕКЛ. КПП УАЗ-3160-1702010 (4ст.) (АДС)</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>3160-1702010</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>2 590 ₽</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/mekhanizm-perekl-kpp-uaz-3160-1702010-4st-ads/</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:00</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>ВТУЛКА СТАРТЕРА ВАЗ классика (Энергомаш) ВСК1</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>39 ₽</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/vtulka-startera-vaz-klassika-energomash-vsk1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:00</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>КРЫШКА 040.3706-500 ВАЗ-2108-10</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>040.3706-500</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>108 ₽</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/kryshka-040-3706-500-vaz-2108-10/</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:00</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Блок управления отопителем ВАЗ-2170 2170-8128020 Автоэлектроника</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>2170-8128020</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>1 506 ₽</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-upravleniya-otopitelem-vaz-2170-2170-8128020-avtoelektronika/</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Блок управления "Микас 11 ЕТ" 371 3763000 4, Газель 4х4 ЗМЗ-40524 Евро-3</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>371 3763000 4</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>9 315 ₽</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/blok-upravleniya-mikas-11-et-371-3763000-4-gazel-4kh4-zmz-40524-evro-3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:35</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Шумоизоляция моторного отсека УАЗ 3151-40-8412220-00</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>3151-40-8412220-00</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>117 ₽</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/shumoizolyatsiya-motornogo-otseka-uaz-3151-40-8412220-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:35</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Прокладка механизма раздаточной коробки УАЗ 452-1803017</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>452-1803017</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>4 ₽</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/prokladka-mekhanizma-razdatochnoy-korobki-uaz-452-1803017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:35</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>ДИОДНЫЙ МОСТ БПВ56-65-02А ВАЗ-2101-07 ген. Г221, Г222</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>БПВ56-65-02А</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>140 ₽</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/diodnyy-most-bpv56-65-02a-vaz-2101-07-gen-g221-g222/</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:35</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Датчик бачка торм жидкости ВАЗ-2101 Сызрань</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>50 ₽</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-bachka-torm-zhidkosti-vaz-2101-syzran/</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:35</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Блок выпрямительный (мост диодный) ВАЗ-2123 с/о КЗАТЭ БВО 3 105</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>БВО 3 105</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>378 ₽</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-vypryamitelnyy-most-diodnyy-vaz-2123-s-o-kzate-bvo-3-105/</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:35</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>МИКАС 11 581.3763-02 E3 Крайслер Газель огр. V-130 км/ч</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>11 581.3763-02 E3</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>8 218 ₽</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/mikas-11-581-3763-02-e3-kraysler-gazel-ogr-v-130-km-ch/</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:35</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>КОЖУХ КОРЗИНЫ СЦЕПЛЕНИЯ "АМО ЗИЛ"(130-1601122)</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>130-1601122</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>455 ₽</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/kozhukh-korziny-stsepleniya-amo-zil-130-1601122/</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:35</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Мотор заслонки отопителя ВАЗ-1118 451-3780000 Автоэлектроника</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>451-3780000</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>726 ₽</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/motor-zaslonki-otopitelya-vaz-1118-451-3780000-avtoelektronika/</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:35</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Выключатель зажигания ВАЗ-1111 ст. обр. VOLTON</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>486 ₽</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/vyklyuchatel-zazhiganiya-vaz-1111-st-obr-volton/</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:35</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 633.3709 вентилятора отопителя МАЗ, ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>633.3709</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>84 ₽</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-633-3709-ventilyatora-otopitelya-maz-vaz-2110/</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:35</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Патрубки отопителя ВАЗ-2108 с хомутами кт. (БРТ) 87РШХ</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>372 ₽</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/patrubki-otopitelya-vaz-2108-s-khomutami-kt-brt-87rshkh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:05:35</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Датчик включения вентилятора ТМ 661661-3710 Калуга</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>661661-3710</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>155 ₽</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-vklyucheniya-ventilyatora-tm-661661-3710-kaluga/</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:10</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Блок управления "Январь" 5.1 ВАЗ-2108,2110 (8-ми клап.)Евро-2,3 261.3763-01 2112-1411 (Калуга)</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>261.3763-01 2112-1411</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>8 992 ₽</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-upravleniya-yanvar-5-1-vaz-2108-2110-8-mi-klap-evro-2-3-261-3763-01-2112-1411-kaluga/</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:10</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Бегунок трамблера ВАЗ-2108-09 с резистором 040.3706-02 СОАТЭ</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>040.3706-02</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>38 ₽</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/begunok-tramblera-vaz-2108-09-s-rezistorom-040-3706-02-soate/</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:10</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Амортизатор газовый ГАЗ-2410, 3110 задний PLAZA (АВ 51.00.00 EX) 232-2915010</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>232-2915010</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>1 240 ₽</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/amortizator-gazovyy-gaz-2410-3110-zadniy-plaza-av-51-00-00-ex-232-2915010/</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:10</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Блокиратор включения заднего хода ВАЗ-1118 11180-1414050-10 (ОАО АВТОВАЗ)</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>11180-1414050-10</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>475 ₽</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blokirator-vklyucheniya-zadnego-khoda-vaz-1118-11180-1414050-10-oao-avtovaz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:10</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>КОМБИНАЦИЯ ПРИБОРОВ КД 8056 МАЗ</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>КД 8056</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>2 194 ₽</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/kombinatsiya-priborov-kd-8056-maz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:10</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>КРЫЛО ПРАВОЕ ЗИЛ-(5301-8403010)"АМО ЗИЛ"</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>5301-8403010</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>9 385 ₽</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/krylo-pravoe-zil-5301-8403010-amo-zil/</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:10</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Датчик уровня омыв. жидкости ВАЗ-2108-10 длинный 21083-3839410-03</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>21083-3839410-03</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>92 ₽</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-urovnya-omyv-zhidkosti-vaz-2108-10-dlinnyy-21083-3839410-03/</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:10</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Датчик температуры охл. жидкости ВАЗ-1118-19, 2170 Калуга 27.3828</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>27.3828</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>93 ₽</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-temperatury-okhl-zhidkosti-vaz-1118-19-2170-kaluga-27-3828/</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:10</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>МОТОРЕДУКТОР СТЕКЛОПОД. ЛЕВ 20.3780 ВАЗ,ГАЗ Калуга</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>20.3780</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>603 ₽</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/motoreduktor-steklopod-lev-20-3780-vaz-gaz-kaluga/</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:10</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Выключатель концевой серии Z ток 15А Z-15GQ22-B</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>15А Z-15GQ22-B</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>1 064 ₽</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/vyklyuchatel-kontsevoy-serii-z-tok-15a-z-15gq22-b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:10</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Колпак защитный D 25 469-3501058</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>469-3501058</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>5 ₽</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kolpak-zashchitnyy-d-25-469-3501058/</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:10</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>АВТОЛАМПА H1 12v EVO 4300K + 130% кт.2шт  Alfas</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>584 ₽</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/avtolampa-h1-12v-evo-4300k-130-kt-2sht-alfas/</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:46</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Облицовка радиатора УАЗ-Хантер в сб. 3153-00-8401110-00</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>3153-00-8401110-00</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>6 355 ₽</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/oblitsovka-radiatora-uaz-khanter-v-sb-3153-00-8401110-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:46</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Переключатель стеклоочистителя ВАЗ-2108-10,15 "VOLTON" VLT2108-3709340</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>VLT2108-3709340</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>213 ₽</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-stekloochistitelya-vaz-2108-10-15-volton-vlt2108-3709340/</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:46</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>КРОНШТЕЙН КОМПРЕССОРА ЗИЛ-(130-3509100-10)</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>130-3509100-10</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>1 195 ₽</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/kronshteyn-kompressora-zil-130-3509100-10/</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:46</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>ЖГУТ задний 2115-3724 210-31</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>2115-3724 210-31</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>1 489 ₽</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/zhgut-zadniy-2115-3724-210-31/</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:46</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>ЖГУТ задний 2113-3724 210-21</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>2113-3724 210-21</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>1 128 ₽</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/zhgut-zadniy-2113-3724-210-21/</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:46</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Панель боковины правая УАЗ-469 под тент 0469-5401058</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>0469-5401058</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>4 920 ₽</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/panel-bokoviny-pravaya-uaz-469-pod-tent-0469-5401058/</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:46</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Блок выпрямительный (мост диодный) ВАЗ-1117-19 (ген.9402) БВО 8 105</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>9402</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>377 ₽</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-vypryamitelnyy-most-diodnyy-vaz-1117-19-gen-9402-bvo-8-105/</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:46</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Подкрылок 3163 перед. прав.</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>295 ₽</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/podkrylok-3163-pered-prav/</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:46</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Патрубки радиатора ВАЗ-2108 инжектор (кт.) (БРТ) 185РШ</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>185РШ</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>323 ₽</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/patrubki-radiatora-vaz-2108-inzhektor-kt-brt-185rsh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:46</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Патрубки радиатора ВАЗ-2105 (кт.4 шт.) (мед. радиатор) Riginal RG2105-1303000-01</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>2105-1303000-01</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>308 ₽</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/patrubki-radiatora-vaz-2105-kt-4-sht-med-radiator-riginal-rg2105-1303000-01/</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:46</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 832.3710-05.03 аварийной сигнализации ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>832.3710-05.03</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>96 ₽</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-832-3710-05-03-avariynoy-signalizatsii-vaz-2110/</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:06:46</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>НАКЛАДКА 131-02-84  (5440-3502105)</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>5440-3502105</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>118 ₽</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/nakladka-131-02-84-5440-3502105/</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:20</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Вакуум контактного трамблера ВАЗ-2101-07 Ст. Оскол 030-3706600</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>030-3706600</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>112 ₽</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/vakuum-kontaktnogo-tramblera-vaz-2101-07-st-oskol-030-3706600/</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:20</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Диодный мост БПВО 88-120/01 для генер. 3012/3022/3042.3701</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>88-120/01</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>706 ₽</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/diodnyy-most-bpvo-88-120-01-dlya-gener-3012-3022-3042-3701/</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:20</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Бендикс ВАЗ-2108 н/о (стартер 5712.37088) KRAFT</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>5712.37088</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>183 ₽</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/bendiks-vaz-2108-n-o-starter-5712-37088-kraft/</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:20</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 831.3710-04.02 задние противотум фары ВАЗ 2110</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>831.3710-04.02</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>68 ₽</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-831-3710-04-02-zadnie-protivotum-fary-vaz-2110/</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:20</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Датчик температуры воздуха AS0004</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>AS0004</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>520 ₽</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/datchik-temperatury-vozdukha-as0004/</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:20</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>НАКЛАДКА 6422-3501105 с заклепками  сверл. Маз</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>6422-3501105</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>113 ₽</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/nakladka-6422-3501105-s-zaklepkami-sverl-maz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:20</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Стойка заднего борта УАЗ-469 левая 469-5401141</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>469-5401141</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>440 ₽</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/stoyka-zadnego-borta-uaz-469-levaya-469-5401141/</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:20</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>КРЫШКА 2101-500</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>20 ₽</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/kryshka-2101-500/</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:20</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>ТЯГА РУЧНОГО ОСТАНОВА ДВИГАТЕЛЯ ЗИЛ-5301(432900-1108130)</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>432900-1108130</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>365 ₽</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/tyaga-ruchnogo-ostanova-dvigatelya-zil-5301-432900-1108130/</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:20</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>ПАЛЕЦ СТАБИЛИЗАТ.ЗАД.ЗИЛ(5301-2916047-01)</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>5301-2916047-01</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>100 ₽</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/palets-stabilizat-zad-zil-5301-2916047-01/</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:20</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>БЛОК КАРТЕРА 2-ЦИЛ КОМПРЕССОРА    130-3509022-01</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>130-3509022-01</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>1 550 ₽</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/blok-kartera-2-tsil-kompressora-130-3509022-01/</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:20</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Катушка зажигания ВАЗ-2108-2109 (СТ Оскол) 027-3705000</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>027-3705000</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>544 ₽</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/katushka-zazhiganiya-vaz-2108-2109-st-oskol-027-3705000/</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:55</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>ГЕНЕРАТОР 9012.3701 ГАЗ 3301, 3308, 3309, 1ручей (совм. с регулятором 2712.3702) (28В, 80А)</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>9012.3701</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>5 170 ₽</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/generator-9012-3701-gaz-3301-3308-3309-1ruchey-sovm-s-regulyatorom-2712-3702-28v-80a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:55</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Датчик температуры окруж. среды ВАЗ-2172 (конд. Panasonic) Лада Холдинг 21720-8121210-00</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>21720-8121210-00</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>537 ₽</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-temperatury-okruzh-sredy-vaz-2172-kond-panasonic-lada-kholding-21720-8121210-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:55</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>НАКЛАДКА 402-3501105 Москвич</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>402-3501105</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>2 ₽</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/nakladka-402-3501105-moskvich/</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:55</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Брызговик УАЗ-PATRIOT прав. моторного отсека 3163-00-8403250-00</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>3163-00-8403250-00</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>4 355 ₽</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/bryzgovik-uaz-patriot-prav-motornogo-otseka-3163-00-8403250-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:55</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>ЖГУТ панели приборов 2115-3724 030-60</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>2115-3724 030-60</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>1 833 ₽</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/zhgut-paneli-priborov-2115-3724-030-60/</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:55</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Комплект монтажный Северс-М3" №61 (ЗиЛ с дв 508.10 )</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>396 ₽</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/komplekt-montazhnyy-severs-m3-61-zil-s-dv-508-10-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:55</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Ось сателитов УАЗ 0451-50-2403060-02</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>0451-50-2403060-02</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>84 ₽</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/os-satelitov-uaz-0451-50-2403060-02/</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:55</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Датчик неровной дороги УАЗ-3163 Patriot, ВАЗ 2108-15 (2123-1413130) 3163-3855011</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>2123-1413130</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>659 ₽</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/datchik-nerovnoy-dorogi-uaz-3163-patriot-vaz-2108-15-2123-1413130-3163-3855011/</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:55</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 83.3710-04.04 обогрева зад. стекла ВАЗ 21093</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>83.3710-04.04</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>115 ₽</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-83-3710-04-04-obogreva-zad-stekla-vaz-21093/</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:55</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Крышка люка УАЗ-452 в сборе 0451-10-5713030-00</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>0451-10-5713030-00</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>195 ₽</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kryshka-lyuka-uaz-452-v-sbore-0451-10-5713030-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:55</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Крышка кпп УАЗ 3160-1702010</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>3160-1702010</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>380 ₽</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kryshka-kpp-uaz-3160-1702010/</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:07:55</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Блок управления подушками безопастности ВАЗ-2172 2172-3826008</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>2172-3826008</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>1 888 ₽</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-upravleniya-podushkami-bezopastnosti-vaz-2172-2172-3826008/</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:08:29</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 83.3710-04.09 вент. отопителя ПАЗ</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>83.3710-04.09</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>273 ₽</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/pereklyuchatel-83-3710-04-09-vent-otopitelya-paz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:08:29</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>ЖГУТ задний 2110-3724 210-03</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>2110-3724 210-03</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>1 237 ₽</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/zhgut-zadniy-2110-3724-210-03/</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:08:29</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Датчик температуры салона ВАЗ-2170 (конд. Panasonic) Лада Холдинг 21720-8128050-00</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>21720-8128050-00</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>874 ₽</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-temperatury-salona-vaz-2170-kond-panasonic-lada-kholding-21720-8128050-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:08:29</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>АВТОЛАМПА H7 24v 70W  МАЯК</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>128 ₽</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/avtolampa-h7-24v-70w-mayak/</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:08:29</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Накладки тормозные (65001880N00A4RV) S 38(64) Dбарабана 412.8 мм Standart FOMAR</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>65001880N00A4RV</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>1 286 ₽</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/nakladki-tormoznye-65001880n00a4rv-s-38-64-dbarabana-412-8-mm-standart-fomar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:08:29</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Насос бачка омывателя ГАЗ-3110,ВАЗ-2110,2112 (12 В/2,5А) 2110  5208009 03</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>5208009 03</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>102 ₽</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/nasos-bachka-omyvatelya-gaz-3110-vaz-2110-2112-12-v-2-5a-2110-5208009-03/</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:08:29</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Сиденье УАЗ-469 грузового отсека (2шт) 3151-20-7000006</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>3151-20-7000006</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>2 665 ₽</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/sidene-uaz-469-gruzovogo-otseka-2sht-3151-20-7000006/</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:08:29</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Воздухозаборник №3 средний /универсальный/</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>210 ₽</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/vozdukhozabornik-3-sredniy-universalnyy/</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:08:29</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Бар "Бокс" УАЗ-469</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>1 700 ₽</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/bar-boks-uaz-469/</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:08:29</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Блок управления отопителем ВАЗ-2110-12 Европанель (1343-3854000) Автоэлектроника</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>1343-3854000</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>1 317 ₽</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-upravleniya-otopitelem-vaz-2110-12-evropanel-1343-3854000-avtoelektronika/</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:08:29</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Автолампа P13W 12277 12VC1</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>12277 12VC1</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>743 ₽</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/avtolampa-p13w-12277-12vc1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:08:29</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Спойлера и пороги УАЗ-469 широкие</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>3 530 ₽</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/spoylera-i-porogi-uaz-469-shirokie/</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:04</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Рейка каркаса боковины 451-10-5401180</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>451-10-5401180</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>200 ₽</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/reyka-karkasa-bokoviny-451-10-5401180/</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:04</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Порог пола УАЗ-Хантер правый 3151-00-5101250-00</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>3151-00-5101250-00</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>960 ₽</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/porog-pola-uaz-khanter-pravyy-3151-00-5101250-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:04</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Кронштейн задней подвески двигателя левый УАЗ 452-1001043</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>452-1001043</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>225 ₽</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kronshteyn-zadney-podveski-dvigatelya-levyy-uaz-452-1001043/</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:04</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Колодка тормозная передняя (кт.4шт.) ВАЗ-2101-07 (PF 966) TRIALLI</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>PF 966</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>690 ₽</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/kolodka-tormoznaya-perednyaya-kt-4sht-vaz-2101-07-pf-966-trialli/</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:04</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Кожух заднего колеса с инструм. ящиком левый 3151-20-5107221-00</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>3151-20-5107221-00</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>1 665 ₽</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kozhukh-zadnego-kolesa-s-instrum-yashchikom-levyy-3151-20-5107221-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:04</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Комплект монтажный Северс-М1" №36 (Гранта 1,6 л 8 кл с МКПП Гранта 1,6 л 16 кл с АКПП Калина 16 кл )</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>264 ₽</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/komplekt-montazhnyy-severs-m1-36-granta-1-6-l-8-kl-s-mkpp-granta-1-6-l-16-kl-s-akpp-kalina-16-kl-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:04</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Блок управления "Январь" М73  ВАЗ-2170 с кондицион.(16-ти кл.1,6 л.) Евро-3 418.3763.001-02 (Калуга)</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>418.3763.001-02</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>4 288 ₽</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-upravleniya-yanvar-m73-vaz-2170-s-konditsion-16-ti-kl-1-6-l-evro-3-418-3763-001-02-kaluga/</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:04</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 93.3710-06.02 задн. противотум фонарей ВАЗ-2114, ГАЗ-3110,31105, Валдай</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>93.3710-06.02</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>119 ₽</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-93-3710-06-02-zadn-protivotum-fonarey-vaz-2114-gaz-3110-31105-valday/</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:04</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>КНОПКА АВАРИЙНОЙ ОСТ.14.3768 Приора ВАЗ-2170</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>14.3768</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>124 ₽</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/knopka-avariynoy-ost-14-3768-priora-vaz-2170/</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:04</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Подкрылок 452 зад. лев.</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>215 ₽</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/podkrylok-452-zad-lev/</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:04</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Накладка переднего бампера УАЗ-469 (клыки) 469-2803017</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>469-2803017</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>725 ₽</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/nakladka-perednego-bampera-uaz-469-klyki-469-2803017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:04</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Колесо рулевое без сигнальной кнопки 452-00-3402015-00</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>452-00-3402015-00</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>1 260 ₽</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/koleso-rulevoe-bez-signalnoy-knopki-452-00-3402015-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:38</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Воздухозаборник №2</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>202 ₽</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/vozdukhozabornik-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:38</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Патрубки радиатора ВАЗ-2123 (кт.2 шт.) Riginal RG2123-0-1303000-0</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>2123-0-1303000-0</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>195 ₽</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/patrubki-radiatora-vaz-2123-kt-2-sht-riginal-rg2123-0-1303000-0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:38</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Датчик фазы ВАЗ-2112 инжектор (Пегас) (ан. 21.3847) с 16-клапанным двигат 2112-3706040-04</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>2112-3706040-04</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>167 ₽</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-fazy-vaz-2112-inzhektor-pegas-an-21-3847-s-16-klapannym-dvigat-2112-3706040-04/</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:38</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>ДАТЧИК УРОВНЯ ТОПЛИВА 5432.3827010  ГАЗ-3110 /70л бак/</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>5432.3827010</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>288 ₽</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/datchik-urovnya-topliva-5432-3827010-gaz-3110-70l-bak/</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:38</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>ПОРШЕНЬ КОМПРЕССОРА ЗИЛ-130 Р2</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>66 ₽</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/porshen-kompressora-zil-130-r2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:38</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Стойка задняя УАЗ-469 правая 469-5401120-00</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>469-5401120-00</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>775 ₽</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/stoyka-zadnyaya-uaz-469-pravaya-469-5401120-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:38</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Подкрылок 3163 перед. лев.</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>190 ₽</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/podkrylok-3163-pered-lev/</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:38</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Педаль газа УАЗ-3163 2007г. вып. 3151-20-1108010</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>3151-20-1108010</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>25 ₽</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/pedal-gaza-uaz-3163-2007g-vyp-3151-20-1108010/</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:38</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Крышка пола УАЗ-Хантер под кпп 3151-00-5113017-10</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>3151-00-5113017-10</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>825 ₽</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kryshka-pola-uaz-khanter-pod-kpp-3151-00-5113017-10/</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:38</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Кронштейн крепления задней опоры УАЗ-Патриот 3160-20-1001048</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>3160-20-1001048</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>535 ₽</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kronshteyn-krepleniya-zadney-opory-uaz-patriot-3160-20-1001048/</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:38</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Блок управления отопителем ВАЗ-2110-12 2110-8128020-02 (1323-3854000) Автоэлектроника</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>2110-8128020-02</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>1 049 ₽</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-upravleniya-otopitelem-vaz-2110-12-2110-8128020-02-1323-3854000-avtoelektronika/</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:09:38</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Блок предохранит. монтажный в сборе (реле и предохранителей) ВАЗ-2107 (АВАР) 404  3722000</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>3722000</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>2 409 ₽</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-predokhranit-montazhnyy-v-sbore-rele-i-predokhraniteley-vaz-2107-avar-404-3722000/</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:14</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Накладки тормозные 65205200A8RV Standart FOMAR</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>65205200A8RV</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>1 467 ₽</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/nakladki-tormoznye-65205200a8rv-standart-fomar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:14</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Патрубки радиатора ВАЗ-2101-05 кт.(БРТ) 84РШ</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>84РШ</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>360 ₽</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/patrubki-radiatora-vaz-2101-05-kt-brt-84rsh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:14</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Усилитель пола УАЗ -469 469-00-5101192-00</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>469-00-5101192-00</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>455 ₽</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/usilitel-pola-uaz-469-469-00-5101192-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:14</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>НАКЛАДКА 5336-3501105 Маз</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>5336-3501105</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>150 ₽</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/nakladka-5336-3501105-maz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:14</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Датчик распредвала ВАЗ-2110 дв.16кл. (датчик фазы щелевой) 21-3847000 Автоэлектроника</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>21-3847000</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>217 ₽</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-raspredvala-vaz-2110-dv-16kl-datchik-fazy-shchelevoy-21-3847000-avtoelektronika/</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:14</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Блок 2-х клавишный обогрева сидений ВАЗ-2110, 2123 (АВАР)</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>534 ₽</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-2-kh-klavishnyy-obogreva-sideniy-vaz-2110-2123-avar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:14</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Жгут панели приборов Газель Бизнес(2010г. с антенным кабелем) 2705 3724229 171</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>2705 3724229 171</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>9 284 ₽</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/zhgut-paneli-priborov-gazel-biznes-2010g-s-antennym-kabelem-2705-3724229-171/</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:14</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Крыло УАЗ-3163 переднее левое 3163-8403013</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>3163-8403013</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>16 220 ₽</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/krylo-uaz-3163-perednee-levoe-3163-8403013/</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:14</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>КОВРИКИ ПЕРЕДНИЕ ПРАВЫЙ УАЗ-452  0452-50-5109014-00</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>452-50-5109014-00</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>55 ₽</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kovriki-perednie-pravyy-uaz-452-0452-50-5109014-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:14</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>ТОРМОЗ ЗАДНИЙ ПРАВ. ЗИЛ-(5301-3502010-10)В СБ.Н/О"АМО ЗИЛ"</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>5301-3502010-10</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>9 670 ₽</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/tormoz-zadniy-prav-zil-5301-3502010-10-v-sb-n-o-amo-zil/</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:14</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>СТУПИЦА ЗАДН.КОЛЕСА ЗИЛ-432930,ПАЗ-Аврора(6404-3104015),10шп,ГОЛ.</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>6404-3104015</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>6 380 ₽</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/stupitsa-zadn-kolesa-zil-432930-paz-avrora-6404-3104015-10shp-gol/</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:14</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>КОЛЬЦО УПОРНОЕ НАСОСА ВОДЯНОГО (130-1307053)</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>130-1307053</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>9 ₽</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/koltso-upornoe-nasosa-vodyanogo-130-1307053/</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:50</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>ВТУЛКА СТАРТЕРА СТ24.3708033 /1шт./</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>24.3708033</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>9 ₽</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/vtulka-startera-st24-3708033-1sht-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:50</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Прокладка термостата 90 л.с. 21-1307106-21</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>21-1307106-21</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>3 ₽</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/prokladka-termostata-90-l-s-21-1307106-21/</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:50</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Патрубки радиатора ГАЗель с дв. Крайслер (к-т 5шт) (Волгопромтранс)</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>401 ₽</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/patrubki-radiatora-gazel-s-dv-kraysler-k-t-5sht-volgopromtrans/</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:50</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Шайба пробки поддона УАЗ 24-1009031</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>24-1009031</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>2 ₽</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/shayba-probki-poddona-uaz-24-1009031/</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:50</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Уплотнитель опускного стекла правый верхний УАЗ-3160 3160-6103292</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>3160-6103292</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>206 ₽</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/uplotnitel-opusknogo-stekla-pravyy-verkhniy-uaz-3160-3160-6103292/</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:50</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>ВТУЛКА СТАРТЕРА ВАЗ - 2108 (Энергомаш) ВСК2</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>37 ₽</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/vtulka-startera-vaz-2108-energomash-vsk2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:50</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Комплект монтажный Северс-М3" №63 (ГАЗ-33106 Валдай с дв Cummins 4.3 л 2013 г )</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>539 ₽</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/komplekt-montazhnyy-severs-m3-63-gaz-33106-valday-s-dv-cummins-4-3-l-2013-g-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:50</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ ВК343-01.07 Освещ.контрольных приборов ВАЗ 2103,21011/Клавиша/</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>ВК343-01.07</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>121 ₽</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-vk343-01-07-osveshch-kontrolnykh-priborov-vaz-2103-21011-klavisha/</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:50</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>ПЕРЕКЛЮЧАТЕЛЬ 26.3710-22.41 обогрев зад. стекла ВАЗ 2107</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>26.3710-22.41</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>85 ₽</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/pereklyuchatel-26-3710-22-41-obogrev-zad-stekla-vaz-2107/</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:50</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>ДИОДНЫЙ МОСТ БПВ 5102.3771.320 Газ, Газель</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>5102.3771.320</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>633 ₽</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/diodnyy-most-bpv-5102-3771-320-gaz-gazel/</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:50</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Опора буфера УАЗ 3160-2912626</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>3160-2912626</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>33 ₽</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/opora-bufera-uaz-3160-2912626/</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10:50</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Накладки тормозные (65001850N00A8RV) В 08,0(112) Dбарабана 410 мм BVP 300x200 Standart FOMAR</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>65001850N00A8RV</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>1 898 ₽</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/nakladki-tormoznye-65001850n00a8rv-v-08-0-112-dbarabana-410-mm-bvp-300x200-standart-fomar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:11:25</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>МИКАС 7.2 293.3763 000-03 (ЗМЗ 409,дмрв нитевой 20.3855)</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>7.2 293.3763 000-03</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>5 617 ₽</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/mikas-7-2-293-3763-000-03-zmz-409-dmrv-nitevoy-20-3855/</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:11:25</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Мост передний УАЗ-3741 без поворот. кулаков  3741-2300015-30</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>3741-2300015-30</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>21 090 ₽</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/most-peredniy-uaz-3741-bez-povorot-kulakov-3741-2300015-30/</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:11:25</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Кронштейн крепления приемной трубы УАЗ-452 3741-00-1203025-00</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>3741-00-1203025-00</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>81 ₽</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kronshteyn-krepleniya-priemnoy-truby-uaz-452-3741-00-1203025-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:11:25</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Датчик бачка торм жидкости ВАЗ-2108 Сызрань</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>50 ₽</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/datchik-bachka-torm-zhidkosti-vaz-2108-syzran/</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:11:25</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Блок управления отопителем ВАЗ-2110-12 (авт.) 2111-8128020-01 (1333-3854000) Автоэлектроника</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>2111-8128020-01</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>1 613 ₽</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-upravleniya-otopitelem-vaz-2110-12-avt-2111-8128020-01-1333-3854000-avtoelektronika/</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:11:25</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Блок управления "Январь" 5.1 ВАЗ-2110,2112 (16-ти клап.фазированный впрыск) 261.3763-11 2112  141102</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>261.3763-11 2112  141102</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>9 134 ₽</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/blok-upravleniya-yanvar-5-1-vaz-2110-2112-16-ti-klap-fazirovannyy-vprysk-261-3763-11-2112-141102/</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:11:25</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>АВТОЛАМПА H1 12-55 P 14.5s White Laser+50% (2шт)  StarLight</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>P 14.5s</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>165 ₽</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/avtolampa-h1-12-55-p-14-5s-white-laser-50-2sht-starlight/</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:11:25</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>НАКЛАДКА СТРЕМЯНКИ ПЕРЕД.СТАБИЛ. ЗИЛ-(5301-2906083)</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>5301-2906083</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>35 ₽</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/nakladka-stremyanki-pered-stabil-zil-5301-2906083/</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:11:25</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Картер кпп УАЗ передний Арзамас 3160-60-1701014-00</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>3160-60-1701014-00</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>1 670 ₽</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/karter-kpp-uaz-peredniy-arzamas-3160-60-1701014-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:11:25</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>МИКАС 11 822.3763-01 УАЗ Патриот ЗМЗ 406 с 20.3855-10 с L-зондом Delfi</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>11 822.3763-01</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>4 841 ₽</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/mikas-11-822-3763-01-uaz-patriot-zmz-406-s-20-3855-10-s-l-zondom-delfi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:11:25</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>СПОЙЛЕРА УАЗ-3162</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>от 2 730 ₽</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/spoylera-uaz-3162/</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:11:25</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Рама УАЗ-469 469-2800010-12</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>2800010-12</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>37 790 ₽</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/rama-uaz-469-469-2800010-12/</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:01</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Накладки тормозные (65301688N10A8RV) В 08х18(80) Dбарабана 422 мм BWP 420x200 Standart FOMAR</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>65301688N10A8RV</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>2 140 ₽</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/nakladki-tormoznye-65301688n10a8rv-v-08kh18-80-dbarabana-422-mm-bwp-420x200-standart-fomar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:01</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Накладки тормозные (65301688N00A8RV) В 08х15(80) Dбарабана 420 мм BPW 420x200 DAF/Fruehauft 420x200/</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>65301688N00A8RV</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>1 873 ₽</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/nakladki-tormoznye-65301688n00a8rv-v-08kh15-80-dbarabana-420-mm-bpw-420x200-daf-fruehauft-420x200/</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:01</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>КНОПКА ОБОГРЕВА ЗАДН. СТЕКЛА Псков ВАЗ-2108</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>71 ₽</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/knopka-obogreva-zadn-stekla-pskov-vaz-2108/</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:01</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Рулевое управление УАЗ-3151 с ГУР Эксперт с сошки 3151-90-3400500-10</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>3151-90-3400500-10</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>28 525 ₽</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/rulevoe-upravlenie-uaz-3151-s-gur-ekspert-s-soshki-3151-90-3400500-10/</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:01</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Крышка картера переднего моста УАЗ 569-20-2300105-02</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>569-20-2300105-02</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>3 840 ₽</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kryshka-kartera-perednego-mosta-uaz-569-20-2300105-02/</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:01</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Кронштейн крепления поперечины левый УАЗ-Патриот 3160-2801115</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>3160-2801115</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>123 ₽</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kronshteyn-krepleniya-poperechiny-levyy-uaz-patriot-3160-2801115/</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:01</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>ВСТАВКА ПЛАВКАЯ ПР119Б-210  10а</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>ПР119Б-210</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>8 ₽</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/vstavka-plavkaya-pr119b-210-10a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:01</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>ВТУЛКА ИЗОЛЯЦИОННАЯ 25.3708311</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>25.3708311</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>27 ₽</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/vtulka-izolyatsionnaya-25-3708311/</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:01</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>ДИОДНЫЙ МОСТ БПВ 5102.3771.320-10 Газ, Газель 100А</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>5102.3771.320-10</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>792 ₽</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/diodnyy-most-bpv-5102-3771-320-10-gaz-gazel-100a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:01</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Рулевое управление УАЗ-3151 с ГУР Эксперт без сошки 3151-90-3400500</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>3151-90-3400500</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>28 860 ₽</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/rulevoe-upravlenie-uaz-3151-s-gur-ekspert-bez-soshki-3151-90-3400500/</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:01</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Накладки тормозные (65208400A8RV) В 08х15(64) Dбарабана 420 мм 420x178 FOMAR</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>65208400A8RV</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>1 878 ₽</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/nakladki-tormoznye-65208400a8rv-v-08kh15-64-dbarabana-420-mm-420x178-fomar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:01</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>ВЫКЛЮЧАТЕЛЬ 931.3710-01.13 фара-искатель Газель, Соболь /европанель/</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>931.3710-01.13</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>86 ₽</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/vyklyuchatel-931-3710-01-13-fara-iskatel-gazel-sobol-evropanel/</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:36</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>ТОРМОЗ ЗАДНИЙ ЛЕВ. ЗИЛ-(5301-3502011-10)В СБ.Н/О"АМО ЗИЛ"</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>5301-3502011-10</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>9 690 ₽</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/tormoz-zadniy-lev-zil-5301-3502011-10-v-sb-n-o-amo-zil/</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:36</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>РАСПЫЛИТЕЛЬ ЗИЛ-5301(145-111210Н) "НОГИНСК"</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>45-111210Н</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>90 ₽</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/raspylitel-zil-5301-145-111210n-noginsk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:36</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Наклейка "2,7i" 3151-95-8212508</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>3151-95-8212508</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>21 ₽</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/nakleyka-2-7i-3151-95-8212508/</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:36</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Регулятор разряжения картера дв. УМЗ-4213, 4216 421-1014070-01</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>4213-1014070</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>640 ₽</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/regulyator-razryazheniya-kartera-dv-umz-4213-4216-4213-1014070/</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:36</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Порог УАЗ-452 левый 0451-50-5401081-20</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>0451-50-5401081-20</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>680 ₽</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/porog-uaz-452-levyy-0451-50-5401081-20/</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:36</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Палец рессорный УАЗ-3160 3160-00-2912476-00</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>3160-00-2912476-00</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>845 ₽</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/palets-ressornyy-uaz-3160-3160-00-2912476-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:36</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Кронштейн фароискателя УАЗ-4693151-00-3711100-00</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>3151-00-3711100-00</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>670 ₽</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kronshteyn-faroiskatelya-uaz-4693151-00-3711100-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:36</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Бар "Супербокс-2" УАЗ-469</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>1 415 ₽</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/bar-superboks-2-uaz-469/</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:36</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Колодка тормозная передняя ГАЗ-3307 в сборе (ГАЗ) 4301-3501090</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>4301-3501090</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>1 270 ₽</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/kolodka-tormoznaya-perednyaya-gaz-3307-v-sbore-gaz-4301-3501090/</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:36</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Хомут тройника системы охлаждения УАЗ</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>33 ₽</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/khomut-troynika-sistemy-okhlazhdeniya-uaz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:36</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Стойка передняя УАЗ-469 левая 469-5301057</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>469-5301057</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>895 ₽</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/stoyka-perednyaya-uaz-469-levaya-469-5301057/</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:12:36</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>САМОРЕЗ ОБШИВКИ УАЗ 10мм 240818-П2</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>240818-П2</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>1 ₽</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/samorez-obshivki-uaz-10mm-240818-p2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:11</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>БЛОК УПРАВЛЕНИЯ ФАРОЙ 4G0907697D</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>4G0907697D</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>8 912 ₽</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/blok-upravleniya-faroy-4g0907697d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:11</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>ШЕСТЕРНИ ПОЛУОСИ РЕД. МОСТА УАЗ 469-240103</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>469-240103</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>570 ₽</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/shesterni-poluosi-red-mosta-uaz-469-240103/</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:11</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Крестовина в сборе ВАЗ-2121, 2123 (LECAR) 2121-2202025</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>2121-2202025</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>390 ₽</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/krestovina-v-sbore-vaz-2121-2123-lecar-2121-2202025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:11</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Накладка диска сцепления дв.406-409ГАЗ-3302(402) б/асб эллипснон сверл. 406  1601138 01</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>1601138 01</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>59 ₽</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/nakladka-diska-stsepleniya-dv-406-409gaz-3302-402-b-asb-ellipsnon-sverl-406-1601138-01/</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:11</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>ВЫКЛЮЧАТЕЛЬ 93.3710-06.02 задних противотум без фиксации ВАЗ, ГАЗ-3310 /европанель/</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>93.3710-06.02</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>74 ₽</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/vyklyuchatel-93-3710-06-02-zadnikh-protivotum-bez-fiksatsii-vaz-gaz-3310-evropanel/</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:11</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Шток вилки з/х. УАЗ-452 0451-50-1702042-10</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>0451-50-1702042-10</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>48 ₽</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/shtok-vilki-z-kh-uaz-452-0451-50-1702042-10/</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:11</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Подкрылок 3303 пер. лев.</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>208 ₽</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/podkrylok-3303-per-lev/</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:11</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>АВТОЛАМПА H1 12-55+30% EL O 3500K P14.5s ДиаЛУЧ</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>P14.5s</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>91 ₽</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/avtolampa-h1-12-55-30-el-o-3500k-p14-5s-dialuch/</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:11</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>КРОНШТЕЙН КРЕПЛ. КАБИНЫ ЛЕВЫЙ ЗИЛ-(5301-5001143) Бычок</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>5301-5001143</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>1 610 ₽</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/kronshteyn-krepl-kabiny-levyy-zil-5301-5001143-bychok/</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:11</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>КОЛЬЦО ОПОРНОГО ПОДШИПНИКА ШКВОРНЯ (130-3001027)</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>130-3001027</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>100 ₽</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/koltso-opornogo-podshipnika-shkvornya-130-3001027/</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:11</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>КАРТЕР РЕДУКТОРА ЗАДНЕГО МОСТА ЗИЛ-133</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>5 000 ₽</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/karter-reduktora-zadnego-mosta-zil-133/</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:11</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Надставка раздвижная задняя правая УАЗ-31514 3151-90-6210010</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>3151-90-6210010</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>8 370 ₽</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/nadstavka-razdvizhnaya-zadnyaya-pravaya-uaz-31514-3151-90-6210010/</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:46</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Надставка раздвижная задняя левая УАЗ-31514 3151-90-6210011</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>3151-90-6210011</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>8 370 ₽</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/nadstavka-razdvizhnaya-zadnyaya-levaya-uaz-31514-3151-90-6210011/</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:46</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Маслоотражатель тормозного барабана УАЗ 0469-00-3501061-01</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>0469-00-3501061-01</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>25 ₽</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/maslootrazhatel-tormoznogo-barabana-uaz-0469-00-3501061-01/</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:46</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Крышка картера переднего моста УАЗ 469 пруж. подвеска гибрид 3151-96-2301013</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>3151-96-2301013</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>6 830 ₽</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kryshka-kartera-perednego-mosta-uaz-469-pruzh-podveska-gibrid-3151-96-2301013/</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:46</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Кронштейн крепления передней опоры левый УАЗ-Патриот дв. УМЗ 3160-40-1001017</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>40-1001017</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>360 ₽</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kronshteyn-krepleniya-peredney-opory-levyy-uaz-patriot-dv-umz-3160-40-1001017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:46</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Поперечина № 1 рамы ГАЗ-3102 (ГАЗ) 3102-2801080</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>3102-2801080</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>500 ₽</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/poperechina-1-ramy-gaz-3102-gaz-3102-2801080/</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:46</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Стойка передняя УАЗ-469 правая 469-5301056</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>469-5301056</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>1 070 ₽</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/stoyka-perednyaya-uaz-469-pravaya-469-5301056/</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:46</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Кронштейн вакуумного уселителя УАЗ-452 3741-00-3510210</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>3741-00-3510210</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>630 ₽</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kronshteyn-vakuumnogo-uselitelya-uaz-452-3741-00-3510210/</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:46</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Воздухозаборник 469 малый "Скат"</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>370 ₽</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/vozdukhozabornik-469-malyy-skat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:46</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Вилка включения 1-2 передачи УАЗ-469 с/о 0469-00-1702024-95</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>0469-00-1702024-95</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>425 ₽</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/vilka-vklyucheniya-1-2-peredachi-uaz-469-s-o-0469-00-1702024-95/</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:46</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Вал вторичный УАЗ кпп "DYMOS" голый 43231Т03060</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>43231Т03060</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>3 270 ₽</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/val-vtorichnyy-uaz-kpp-dymos-golyy-43231t03060/</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:46</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Шумоизоляция моторного отсека УАЗ 3159-00-8412220-00</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>3159-00-8412220-00</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>115 ₽</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/shumoizolyatsiya-motornogo-otseka-uaz-3159-00-8412220-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:13:46</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Амортизатор УАЗ-31519 передний пружинная подвеска PLAZA (АВ 93.00.00 SP)</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>АВ 93.00.00 SP</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>1 200 ₽</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/amortizator-uaz-31519-peredniy-pruzhinnaya-podveska-plaza-av-93-00-00-sp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:21</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Рама УАЗ-3741, 3909, 3962, 2206 3741-2800010-02</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>2800010-02</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>52 895 ₽</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/rama-uaz-3741-3909-3962-2206-3741-2800010-02/</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:21</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Пружина сервопривода 3163</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>22 ₽</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/pruzhina-servoprivoda-3163/</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:21</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Комплект монтажный Северс-М1" №29 (УАЗ Патриот с дв IVECO F1A)</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>264 ₽</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/komplekt-montazhnyy-severs-m1-29-uaz-patriot-s-dv-iveco-f1a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:21</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>БАЛКА ПЕРЕДНЕЙ ОСИ ЗИЛ-(5301-3001010-20) Н/О "ПЗА"</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>5301-3001010-20</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>24 735 ₽</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/balka-peredney-osi-zil-5301-3001010-20-n-o-pza/</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:21</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Панель верхняя под магнитолу УАЗ-452</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>1 735 ₽</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/panel-verkhnyaya-pod-magnitolu-uaz-452/</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:21</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Основание регулятора давления УАЗ 3160-3512120</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>3160-3512120</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>59 ₽</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/osnovanie-regulyatora-davleniya-uaz-3160-3512120/</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:21</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Накладки тормозные (6520841010A8RV) В 08х18(64) Dбарабана 422 мм BWP 420x178 FOMAR</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>6520841010A8RV</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>2 023 ₽</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/nakladki-tormoznye-6520841010a8rv-v-08kh18-64-dbarabana-422-mm-bwp-420x178-fomar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:21</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>БУФЕР ХОДА СЖАТИЯ ПЕРЕД. ПОДВЕСКИ ЗИЛ(5301-2902624)</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>5301-2902624</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>80 ₽</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/bufer-khoda-szhatiya-pered-podveski-zil-5301-2902624/</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:21</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Блок шестерен распредвала ГАЗ-4301, 3306, 3309 (ГАЗ) 542-1006240</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>542-1006240</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>550 ₽</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/blok-shesteren-raspredvala-gaz-4301-3306-3309-gaz-542-1006240/</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:21</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>АВТОЛАМПА H3 (разъем КЕТ) 4300К кт.2шт</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>403 ₽</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/avtolampa-h3-razem-ket-4300k-kt-2sht/</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:21</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>ПАНЕЛЬ ПЕРЕДКА БОКОВАЯ ПРАВ.ЗИЛ-(4331-5301030)</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>4331-5301030</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>705 ₽</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/panel-peredka-bokovaya-prav-zil-4331-5301030/</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:21</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>КРЫЛЬЧАТКА ВОДЯНОГО НАСОСА ЗИЛ-5301(240-1307074-В)</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>240-1307074-В</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>115 ₽</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/krylchatka-vodyanogo-nasosa-zil-5301-240-1307074-v/</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:56</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>ТЯГА ЗАМКА ДВЕРИ ДЛИННАЯ УАЗ</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>18 ₽</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/tyaga-zamka-dveri-dlinnaya-uaz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:56</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>КЛАПАН ЗАЩИТНЫЙ ДВОЙНОЙ УАЗ 100-3515110</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>100-3515110</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>1 000 ₽</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/klapan-zashchitnyy-dvoynoy-uaz-100-3515110/</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:56</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Гофра вакуумного усилителя УАЗ 3151-3510200</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>3151-3510200</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>35 ₽</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/gofra-vakuumnogo-usilitelya-uaz-3151-3510200/</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:56</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Шайба рычагов переключения УАЗ-469 469-1803085-01</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>469-1803085-01</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>2 ₽</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/shayba-rychagov-pereklyucheniya-uaz-469-469-1803085-01/</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:56</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>АВТОЛАМПА P21W 24V BA15s yellow  General Electric</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>BA15s</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>30 ₽</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/avtolampa-p21w-24v-ba15s-yellow-general-electric/</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:56</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Шток вилки переднего моста н/о УАЗ-Патриот 3162-1803030</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>3162-1803030</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>64 ₽</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/shtok-vilki-perednego-mosta-n-o-uaz-patriot-3162-1803030/</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:56</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>НАКЛАДКА 131-31-26  (16.3502110) с закл.</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>16.3502110</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>90 ₽</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/nakladka-131-31-26-16-3502110-s-zakl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:56</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>РЕМОНТНЫЙ КОМПЛЕКТ РАБ. ТОРМОЗ. ЦИЛИНДРА УАЗ-3160 АДС</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>135 ₽</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/remontnyy-komplekt-rab-tormoz-tsilindra-uaz-3160-ads/</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:56</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Насос водяной УМЗ 469, 452 (помпа) УАЗ 469 Китай</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>875 ₽</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/nasos-vodyanoy-umz-469-452-pompa-uaz-469-kitay/</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:56</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Накладки на петли УАЗ (8шт)</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>305 ₽</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/nakladki-na-petli-uaz-8sht/</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:56</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Мост задний УАЗ-469 пружинная подвеска, пер. отн. 4,625 3151-20-2400010-96</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>38 940 ₽</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/most-zadniy-uaz-469-pruzhinnaya-podveska-per-otn-4-625-3151-20-2400010-96/</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:14:56</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Датчик температуры воздуха 550384 Peugeot/Citroen</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>550384</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>550 ₽</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/datchik-temperatury-vozdukha-550384-peugeot-citroen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:15:30</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Штанга стабилизатора УАЗ-31512 3160-2906016</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>3160-2906016</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>2 105 ₽</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/shtanga-stabilizatora-uaz-31512-3160-2906016/</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:15:30</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>Шпилька колеса военный мост</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>65 ₽</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/shpilka-kolesa-voennyy-most/</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:15:30</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>ШЕСТ. 88 РК УАЗ 3741-00-1802088-00</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>3741-00-1802088-00</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>660 ₽</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/shest-88-rk-uaz-3741-00-1802088-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:15:30</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Картер переднего моста УАЗ 469 гибрид пруж. подвеска 3151-96-2301010-20</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>3151-96-2301010-20</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>8 725 ₽</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/karter-perednego-mosta-uaz-469-gibrid-pruzh-podveska-3151-96-2301010-20/</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:15:30</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>ДВЕРЬ ПЕРЕДНЯЯ ПРАВАЯ УАЗ-469</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>1 405 ₽</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/dver-perednyaya-pravaya-uaz-469/</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:15:30</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>БОКОВИНА ПРАВАЯ ЛЕВАЯ 8402318/19</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>8402318/19</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>205 ₽</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/bokovina-pravaya-levaya-8402318-19/</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:15:30</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Крестовина УАЗ в сборе Стандарт 469-2201025-10</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>469-2201025-10</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>780 ₽</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/krestovina-uaz-v-sbore-standart-469-2201025-10/</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:15:30</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Обойма подушки амортизатора УАЗ 3741-2905546</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>3741-2905546</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>26 ₽</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/oboyma-podushki-amortizatora-uaz-3741-2905546/</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:15:30</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Мост передний УАЗ-469 гибридный дисковые тормоза, пружинная подвеска 3151-96-230001-95</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>3151-96-230001-95</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>91 755 ₽</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/most-peredniy-uaz-469-gibridnyy-diskovye-tormoza-pruzhinnaya-podveska-3151-96-230001-95/</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:15:30</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>РЫЧАГ ВАЛА ВКЛЮЧЕНИЯ СЦЕПЛЕНИЯ 0469-00-1602057-10</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>0469-00-1602057-10</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>52 ₽</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/rychag-vala-vklyucheniya-stsepleniya-0469-00-1602057-10/</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:15:30</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Накладки на капот УАЗ-469 (Жабры) 31512-</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>225 ₽</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/nakladki-na-kapot-uaz-469-zhabry-31512/</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:15:30</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Лестница к багажнику УАЗ-Хантер</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>1 400 ₽</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/lestnitsa-k-bagazhniku-uaz-khanter/</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:05</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Крышка боковая пром. вала раздаточной коробки УАЗ 3741-00-1802105-01</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>3741-00-1802105-01</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>115 ₽</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kryshka-bokovaya-prom-vala-razdatochnoy-korobki-uaz-3741-00-1802105-01/</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:05</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Датчик неровной дороги ВАЗ,ГАЗ,УАЗ (Евро-3,Евро-4) 25-3855000-01 Автоэлектроника</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>25-3855000-01</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>636 ₽</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/datchik-nerovnoy-dorogi-vaz-gaz-uaz-evro-3-evro-4-25-3855000-01-avtoelektronika/</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:05</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Окантовка лобового стекла верхняя ГАЗ-2410-31105 (ГАЗ) 3110-5206158</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>3110-5206158</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>1 290 ₽</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/okantovka-lobovogo-stekla-verkhnyaya-gaz-2410-31105-gaz-3110-5206158/</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:05</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>ТЯГА ЗАМКА ДВЕРИ КОРОТКАЯ УАЗ</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>17 ₽</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/tyaga-zamka-dveri-korotkaya-uaz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:05</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>ТРУБКА ПРИЕМН. ТОПЛИВА С ФИЛЬТРОМ В СБОРЕ УАЗ-469</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>117 ₽</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/trubka-priemn-topliva-s-filtrom-v-sbore-uaz-469/</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:05</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Глушитель Хантер два фланца на 2х3 отв. 31602-1201010-11</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>31602-1201010-11</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>3 055 ₽</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/glushitel-khanter-dva-flantsa-na-2kh3-otv-31602-1201010-11/</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:05</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Втулка педали сцепления и тормоза УАЗ 3160-00-1602072-00</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>1602072-00</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>8 ₽</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/vtulka-pedali-stsepleniya-i-tormoza-uaz-3160-00-1602072-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:05</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Валик привода акселератора УАЗ-469 0469-00-1108030-00</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>0469-00-1108030-00</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>100 ₽</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/valik-privoda-akseleratora-uaz-469-0469-00-1108030-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:05</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>ДАТЧИК ИМПУЛЬСОВ ПД 8136 грузовые авто</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>ПД 8136</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>1 107 ₽</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/avtomobilnye-zapchasti/datchik-impulsov-pd-8136-gruzovye-avto/</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:05</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>КРЫЛЬЧАТКА ВЕНТИЛЯТОРА(метал) ЗИЛ-5301(240-1308040-А) 4 лоп.</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>240-1308040-А</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>665 ₽</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/krylchatka-ventilyatora-metal-zil-5301-240-1308040-a-4-lop/</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:05</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>ГАЙКА ПАЛЬЦА ПЕРЕД.АМОРТ.ЗИЛ(5301-303261-П29) самост.пласт.</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>5301-303261-П29</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>7 ₽</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/zil/gayka-paltsa-pered-amort-zil-5301-303261-p29-samost-plast/</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:05</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Барабан тормозной задний ВАЗ-2101-07 (TF 077) TRIALLI</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>TF 077</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>1 770 ₽</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/vaz/baraban-tormoznoy-zadniy-vaz-2101-07-tf-077-trialli/</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:41</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Наклейка "2,9i" 3151-95-8212510</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>3151-95-8212510</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>23 ₽</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/nakleyka-2-9i-3151-95-8212510/</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:41</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Накладка на задний бампер правая 3160,3162,3163 3163-2804042-02</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>3163-2804042-02</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>1 430 ₽</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/nakladka-na-zadniy-bamper-pravaya-3160-3162-3163-3163-2804042-02/</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:41</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Мост задний УАЗ-3741 Спайсер (нераз., пер. отн. 4,111, 37 зуб.) 3741-2400010-97</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>69 710 ₽</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/most-zadniy-uaz-3741-spayser-neraz-per-otn-4-111-37-zub-3741-2400010-97/</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:41</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Молдинг переднего крыла левый УАЗ-Патриот 3163-8212051-05</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>3163-8212051-05</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>1 540 ₽</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/molding-perednego-kryla-levyy-uaz-patriot-3163-8212051-05/</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:41</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>К-Т ПНЕВМОБЛОКИРОВКИ ЭЛЕКТРИЧЕСКИЙ СПАЙСЕР /2 ДИФЕРЕНЦИАЛА+КОМПРЕССОР/</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>Артикул не найден</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>39 590 ₽</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/k-t-pnevmoblokirovki-elektricheskiy-spayser-2-diferentsiala-kompressor/</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:41</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Поршень компрессора в сборе. ПАЗ-3205 А29.-05.100</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>А29.-05.100</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>1 430 ₽</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/porshen-kompressora-v-sbore-paz-3205-a29-05-100/</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:41</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Жалюзи радиатора в сборе УАЗ 0469-00-1310110-01</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>0469-00-1310110-01</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>1 360 ₽</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/zhalyuzi-radiatora-v-sbore-uaz-0469-00-1310110-01/</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:41</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Дверь передняя левая УАЗ-3160 3160-00-6100013-00</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>3160-00-6100013-00</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>20 230 ₽</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/dver-perednyaya-levaya-uaz-3160-3160-00-6100013-00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:41</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Вилка включения заднего хода УАЗ-452 с/о 0451-50-1702022-95</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>0451-50-1702022-95</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>840 ₽</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/vilka-vklyucheniya-zadnego-khoda-uaz-452-s-o-0451-50-1702022-95/</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:41</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Болт М10х60 стяжной рессоры УАЗ 201509-П2</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>201509-П2</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>7 ₽</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/bolt-m10kh60-styazhnoy-ressory-uaz-201509-p2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:41</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Палец поршневой УАЗ 90 л/с 4 шт. 21-1004020-14</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>21-1004020-14</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>185 ₽</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/palets-porshnevoy-uaz-90-l-s-4-sht-21-1004020-14/</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:16:41</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Крышка верхняя люка картера раздаточной коробки УАЗ 0452-00-1802017</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>0452-00-1802017</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>55 ₽</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kryshka-verkhnyaya-lyuka-kartera-razdatochnoy-korobki-uaz-0452-00-1802017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:17:27</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Кронштейн крепления поперечины правый УАЗ-Патриот 3160-2801114</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>3160-2801114</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>355 ₽</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/kronshteyn-krepleniya-poperechiny-pravyy-uaz-patriot-3160-2801114/</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:17:27</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Коробка переключения передач УАЗ-3160 4ст. АДС 3160-1700010</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>3160-1700010</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>24 685 ₽</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/korobka-pereklyucheniya-peredach-uaz-3160-4st-ads-3160-1700010/</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:17:27</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Балка передней подвески ГАЗ-3110 (ГАЗ) 3110-2801100-30</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>3110-2801100-30</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>4 708 ₽</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/gaz/balka-peredney-podveski-gaz-3110-gaz-3110-2801100-30/</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:17:27</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Ступица вала крышки кпп УАЗ-452 0451-50-1702155</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>0451-50-1702155</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>87 ₽</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>https://vapkagro.ru/catalog/uaz/stupitsa-vala-kryshki-kpp-uaz-452-0451-50-1702155/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
